--- a/F.xlsx
+++ b/F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0530BC-5FE0-437F-AF65-3FAC677FF028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEFFE67-6204-48F3-8285-3B6EEE43C154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="21012" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,7 +69,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,1996 +351,2217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C180"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>3.64</v>
+        <v>2.04</v>
       </c>
       <c r="B1" s="1">
-        <v>8.9723729999999993</v>
+        <v>10.016904</v>
       </c>
       <c r="C1" s="1">
-        <v>3.1845159999999999</v>
+        <v>3.3554710000000001</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3.72</v>
+        <v>2.04</v>
       </c>
       <c r="B2" s="1">
-        <v>8.9478639999999992</v>
+        <v>9.9450350000000007</v>
       </c>
       <c r="C2" s="1">
-        <v>3.172733</v>
+        <v>3.3516849999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3.8</v>
+        <v>2.04</v>
       </c>
       <c r="B3" s="1">
-        <v>8.9197100000000002</v>
+        <v>9.8649299999999993</v>
       </c>
       <c r="C3" s="1">
-        <v>3.160415</v>
+        <v>3.3494619999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3.88</v>
+        <v>2.04</v>
       </c>
       <c r="B4" s="1">
-        <v>8.8877380000000006</v>
+        <v>9.7880559999999992</v>
       </c>
       <c r="C4" s="1">
-        <v>3.1564230000000002</v>
+        <v>3.3489360000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3.96</v>
+        <v>2.04</v>
       </c>
       <c r="B5" s="1">
-        <v>8.8511749999999996</v>
+        <v>9.7189809999999994</v>
       </c>
       <c r="C5" s="1">
-        <v>3.1548210000000001</v>
+        <v>3.3513999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="B6" s="1">
-        <v>8.8141130000000008</v>
+        <v>9.6486590000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>3.145578</v>
+        <v>3.3504179999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4.12</v>
+        <v>2.04</v>
       </c>
       <c r="B7" s="1">
-        <v>8.7663340000000005</v>
+        <v>9.584714</v>
       </c>
       <c r="C7" s="1">
-        <v>3.1302370000000002</v>
+        <v>3.357615</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4.2</v>
+        <v>2.04</v>
       </c>
       <c r="B8" s="1">
-        <v>8.7204339999999991</v>
+        <v>9.5147429999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>3.118115</v>
+        <v>3.3609879999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4.28</v>
+        <v>2.04</v>
       </c>
       <c r="B9" s="1">
-        <v>8.6719080000000002</v>
+        <v>9.4486319999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>3.1037360000000001</v>
+        <v>3.3575119999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4.3600000000000003</v>
+        <v>2.76</v>
       </c>
       <c r="B10" s="1">
-        <v>8.6209559999999996</v>
+        <v>9.3847229999999993</v>
       </c>
       <c r="C10" s="1">
-        <v>3.0918380000000001</v>
+        <v>3.3577870000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4.4400000000000004</v>
+        <v>2.84</v>
       </c>
       <c r="B11" s="1">
-        <v>8.5708330000000004</v>
+        <v>9.3274480000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>3.0714269999999999</v>
+        <v>3.3488039999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4.5199999999999996</v>
+        <v>2.92</v>
       </c>
       <c r="B12" s="1">
-        <v>8.5184719999999992</v>
+        <v>9.2756399999999992</v>
       </c>
       <c r="C12" s="1">
-        <v>3.044486</v>
+        <v>3.3413849999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>8.4718210000000003</v>
+        <v>9.2230729999999994</v>
       </c>
       <c r="C13" s="1">
-        <v>3.0183789999999999</v>
+        <v>3.3321329999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4.68</v>
+        <v>3.08</v>
       </c>
       <c r="B14" s="1">
-        <v>8.4316689999999994</v>
+        <v>9.1753509999999991</v>
       </c>
       <c r="C14" s="1">
-        <v>2.9898509999999998</v>
+        <v>3.3139699999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4.76</v>
+        <v>3.16</v>
       </c>
       <c r="B15" s="1">
-        <v>8.3961970000000008</v>
+        <v>9.1328899999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>2.9613679999999998</v>
+        <v>3.2982809999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>4.84</v>
+        <v>3.24</v>
       </c>
       <c r="B16" s="1">
-        <v>8.3653410000000008</v>
+        <v>9.1013920000000006</v>
       </c>
       <c r="C16" s="1">
-        <v>2.9387629999999998</v>
+        <v>3.2778309999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>4.92</v>
+        <v>3.32</v>
       </c>
       <c r="B17" s="1">
-        <v>8.3419019999999993</v>
+        <v>9.0638140000000007</v>
       </c>
       <c r="C17" s="1">
-        <v>2.9158580000000001</v>
+        <v>3.255795</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="B18" s="1">
-        <v>8.3256490000000003</v>
+        <v>9.0430670000000006</v>
       </c>
       <c r="C18" s="1">
-        <v>2.898406</v>
+        <v>3.2338830000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>5.08</v>
+        <v>3.48</v>
       </c>
       <c r="B19" s="1">
-        <v>8.3201009999999993</v>
+        <v>9.0146309999999996</v>
       </c>
       <c r="C19" s="1">
-        <v>2.8846349999999998</v>
+        <v>3.2109290000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>5.16</v>
+        <v>3.56</v>
       </c>
       <c r="B20" s="1">
-        <v>8.3128399999999996</v>
+        <v>8.9998120000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>2.877332</v>
+        <v>3.1981639999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>5.24</v>
+        <v>3.64</v>
       </c>
       <c r="B21" s="1">
-        <v>8.3088859999999993</v>
+        <v>8.9723729999999993</v>
       </c>
       <c r="C21" s="1">
-        <v>2.8850600000000002</v>
+        <v>3.1845159999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>5.32</v>
+        <v>3.72</v>
       </c>
       <c r="B22" s="1">
-        <v>8.3097919999999998</v>
+        <v>8.9478639999999992</v>
       </c>
       <c r="C22" s="1">
-        <v>2.895756</v>
+        <v>3.172733</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="B23" s="1">
-        <v>8.3086730000000006</v>
+        <v>8.9197100000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>2.913627</v>
+        <v>3.160415</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>5.48</v>
+        <v>3.88</v>
       </c>
       <c r="B24" s="1">
-        <v>8.3090440000000001</v>
+        <v>8.8877380000000006</v>
       </c>
       <c r="C24" s="1">
-        <v>2.9334910000000001</v>
+        <v>3.1564230000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>5.56</v>
+        <v>3.96</v>
       </c>
       <c r="B25" s="1">
-        <v>8.3022430000000007</v>
+        <v>8.8511749999999996</v>
       </c>
       <c r="C25" s="1">
-        <v>2.9606780000000001</v>
+        <v>3.1548210000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5.64</v>
+        <v>4.04</v>
       </c>
       <c r="B26" s="1">
-        <v>8.2935350000000003</v>
+        <v>8.8141130000000008</v>
       </c>
       <c r="C26" s="1">
-        <v>2.9877410000000002</v>
+        <v>3.145578</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5.72</v>
+        <v>4.12</v>
       </c>
       <c r="B27" s="1">
-        <v>8.2758210000000005</v>
+        <v>8.7663340000000005</v>
       </c>
       <c r="C27" s="1">
-        <v>3.021506</v>
+        <v>3.1302370000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="B28" s="1">
-        <v>8.2589000000000006</v>
+        <v>8.7204339999999991</v>
       </c>
       <c r="C28" s="1">
-        <v>3.0471050000000002</v>
+        <v>3.118115</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>5.88</v>
+        <v>4.28</v>
       </c>
       <c r="B29" s="1">
-        <v>8.2283410000000003</v>
+        <v>8.6719080000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>3.0738539999999999</v>
+        <v>3.1037360000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>5.96</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="B30" s="1">
-        <v>8.2063690000000005</v>
+        <v>8.6209559999999996</v>
       </c>
       <c r="C30" s="1">
-        <v>3.092924</v>
+        <v>3.0918380000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>6.04</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="B31" s="1">
-        <v>8.1707660000000004</v>
+        <v>8.5708330000000004</v>
       </c>
       <c r="C31" s="1">
-        <v>3.108441</v>
+        <v>3.0714269999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>6.12</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B32" s="1">
-        <v>8.1312879999999996</v>
+        <v>8.5184719999999992</v>
       </c>
       <c r="C32" s="1">
-        <v>3.1221960000000002</v>
+        <v>3.044486</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>6.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B33" s="1">
-        <v>8.0882839999999998</v>
+        <v>8.4718210000000003</v>
       </c>
       <c r="C33" s="1">
-        <v>3.1319460000000001</v>
+        <v>3.0183789999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>6.28</v>
+        <v>4.68</v>
       </c>
       <c r="B34" s="1">
-        <v>8.0488459999999993</v>
+        <v>8.4316689999999994</v>
       </c>
       <c r="C34" s="1">
-        <v>3.1301580000000002</v>
+        <v>2.9898509999999998</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>6.36</v>
+        <v>4.76</v>
       </c>
       <c r="B35" s="1">
-        <v>8.0061789999999995</v>
+        <v>8.3961970000000008</v>
       </c>
       <c r="C35" s="1">
-        <v>3.1273939999999998</v>
+        <v>2.9613679999999998</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>6.44</v>
+        <v>4.84</v>
       </c>
       <c r="B36" s="1">
-        <v>7.9639480000000002</v>
+        <v>8.3653410000000008</v>
       </c>
       <c r="C36" s="1">
-        <v>3.1168010000000002</v>
+        <v>2.9387629999999998</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>6.52</v>
+        <v>4.92</v>
       </c>
       <c r="B37" s="1">
-        <v>7.9257590000000002</v>
+        <v>8.3419019999999993</v>
       </c>
       <c r="C37" s="1">
-        <v>3.1072259999999998</v>
+        <v>2.9158580000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
-        <v>7.8929919999999996</v>
+        <v>8.3256490000000003</v>
       </c>
       <c r="C38" s="1">
-        <v>3.1004070000000001</v>
+        <v>2.898406</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>6.68</v>
+        <v>5.08</v>
       </c>
       <c r="B39" s="1">
-        <v>7.8616830000000002</v>
+        <v>8.3201009999999993</v>
       </c>
       <c r="C39" s="1">
-        <v>3.0947019999999998</v>
+        <v>2.8846349999999998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>6.76</v>
+        <v>5.16</v>
       </c>
       <c r="B40" s="1">
-        <v>7.8350080000000002</v>
+        <v>8.3128399999999996</v>
       </c>
       <c r="C40" s="1">
-        <v>3.0909339999999998</v>
+        <v>2.877332</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>6.84</v>
+        <v>5.24</v>
       </c>
       <c r="B41" s="1">
-        <v>7.8029710000000003</v>
+        <v>8.3088859999999993</v>
       </c>
       <c r="C41" s="1">
-        <v>3.0971769999999998</v>
+        <v>2.8850600000000002</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>6.92</v>
+        <v>5.32</v>
       </c>
       <c r="B42" s="1">
-        <v>7.7784319999999996</v>
+        <v>8.3097919999999998</v>
       </c>
       <c r="C42" s="1">
-        <v>3.1076519999999999</v>
+        <v>2.895756</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="B43" s="1">
-        <v>7.7534260000000002</v>
+        <v>8.3086730000000006</v>
       </c>
       <c r="C43" s="1">
-        <v>3.1249349999999998</v>
+        <v>2.913627</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7.08</v>
+        <v>5.48</v>
       </c>
       <c r="B44" s="1">
-        <v>7.7316799999999999</v>
+        <v>8.3090440000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>3.1481910000000002</v>
+        <v>2.9334910000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7.16</v>
+        <v>5.56</v>
       </c>
       <c r="B45" s="1">
-        <v>7.7041810000000002</v>
+        <v>8.3022430000000007</v>
       </c>
       <c r="C45" s="1">
-        <v>3.1761590000000002</v>
+        <v>2.9606780000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>7.24</v>
+        <v>5.64</v>
       </c>
       <c r="B46" s="1">
-        <v>7.6802590000000004</v>
+        <v>8.2935350000000003</v>
       </c>
       <c r="C46" s="1">
-        <v>3.2181500000000001</v>
+        <v>2.9877410000000002</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>7.32</v>
+        <v>5.72</v>
       </c>
       <c r="B47" s="1">
-        <v>7.6511950000000004</v>
+        <v>8.2758210000000005</v>
       </c>
       <c r="C47" s="1">
-        <v>3.2567900000000001</v>
+        <v>3.021506</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="B48" s="1">
-        <v>7.6199979999999998</v>
+        <v>8.2589000000000006</v>
       </c>
       <c r="C48" s="1">
-        <v>3.3064070000000001</v>
+        <v>3.0471050000000002</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>7.48</v>
+        <v>5.88</v>
       </c>
       <c r="B49" s="1">
-        <v>7.5840670000000001</v>
+        <v>8.2283410000000003</v>
       </c>
       <c r="C49" s="1">
-        <v>3.3486989999999999</v>
+        <v>3.0738539999999999</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>7.56</v>
+        <v>5.96</v>
       </c>
       <c r="B50" s="1">
-        <v>7.5514669999999997</v>
+        <v>8.2063690000000005</v>
       </c>
       <c r="C50" s="1">
-        <v>3.3992309999999999</v>
+        <v>3.092924</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>7.64</v>
+        <v>6.04</v>
       </c>
       <c r="B51" s="1">
-        <v>7.5118970000000003</v>
+        <v>8.1707660000000004</v>
       </c>
       <c r="C51" s="1">
-        <v>3.4315950000000002</v>
+        <v>3.108441</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>7.72</v>
+        <v>6.12</v>
       </c>
       <c r="B52" s="1">
-        <v>7.4768290000000004</v>
+        <v>8.1312879999999996</v>
       </c>
       <c r="C52" s="1">
-        <v>3.4685359999999998</v>
+        <v>3.1221960000000002</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="B53" s="1">
-        <v>7.4388889999999996</v>
+        <v>8.0882839999999998</v>
       </c>
       <c r="C53" s="1">
-        <v>3.4936180000000001</v>
+        <v>3.1319460000000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>7.88</v>
+        <v>6.28</v>
       </c>
       <c r="B54" s="1">
-        <v>7.4066890000000001</v>
+        <v>8.0488459999999993</v>
       </c>
       <c r="C54" s="1">
-        <v>3.5207839999999999</v>
+        <v>3.1301580000000002</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>7.96</v>
+        <v>6.36</v>
       </c>
       <c r="B55" s="1">
-        <v>7.3772120000000001</v>
+        <v>8.0061789999999995</v>
       </c>
       <c r="C55" s="1">
-        <v>3.5307339999999998</v>
+        <v>3.1273939999999998</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>8.0399999999999991</v>
+        <v>6.44</v>
       </c>
       <c r="B56" s="1">
-        <v>7.3534300000000004</v>
+        <v>7.9639480000000002</v>
       </c>
       <c r="C56" s="1">
-        <v>3.5405509999999998</v>
+        <v>3.1168010000000002</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>8.1199999999999992</v>
+        <v>6.52</v>
       </c>
       <c r="B57" s="1">
-        <v>7.3309230000000003</v>
+        <v>7.9257590000000002</v>
       </c>
       <c r="C57" s="1">
-        <v>3.5322390000000001</v>
+        <v>3.1072259999999998</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>8.1999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="B58" s="1">
-        <v>7.3100379999999996</v>
+        <v>7.8929919999999996</v>
       </c>
       <c r="C58" s="1">
-        <v>3.526535</v>
+        <v>3.1004070000000001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>8.2799999999999994</v>
+        <v>6.68</v>
       </c>
       <c r="B59" s="1">
-        <v>7.3027329999999999</v>
+        <v>7.8616830000000002</v>
       </c>
       <c r="C59" s="1">
-        <v>3.5146989999999998</v>
+        <v>3.0947019999999998</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>8.36</v>
+        <v>6.76</v>
       </c>
       <c r="B60" s="1">
-        <v>7.2962600000000002</v>
+        <v>7.8350080000000002</v>
       </c>
       <c r="C60" s="1">
-        <v>3.4926159999999999</v>
+        <v>3.0909339999999998</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>8.44</v>
+        <v>6.84</v>
       </c>
       <c r="B61" s="1">
-        <v>7.288678</v>
+        <v>7.8029710000000003</v>
       </c>
       <c r="C61" s="1">
-        <v>3.4729950000000001</v>
+        <v>3.0971769999999998</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>8.52</v>
+        <v>6.92</v>
       </c>
       <c r="B62" s="1">
-        <v>7.2906560000000002</v>
+        <v>7.7784319999999996</v>
       </c>
       <c r="C62" s="1">
-        <v>3.4432909999999999</v>
+        <v>3.1076519999999999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
-        <v>7.2820910000000003</v>
+        <v>7.7534260000000002</v>
       </c>
       <c r="C63" s="1">
-        <v>3.4145150000000002</v>
+        <v>3.1249349999999998</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>8.68</v>
+        <v>7.08</v>
       </c>
       <c r="B64" s="1">
-        <v>7.2886860000000002</v>
+        <v>7.7316799999999999</v>
       </c>
       <c r="C64" s="1">
-        <v>3.3934500000000001</v>
+        <v>3.1481910000000002</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>8.76</v>
+        <v>7.16</v>
       </c>
       <c r="B65" s="1">
-        <v>7.2854489999999998</v>
+        <v>7.7041810000000002</v>
       </c>
       <c r="C65" s="1">
-        <v>3.3549859999999998</v>
+        <v>3.1761590000000002</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>8.84</v>
+        <v>7.24</v>
       </c>
       <c r="B66" s="1">
-        <v>7.276859</v>
+        <v>7.6802590000000004</v>
       </c>
       <c r="C66" s="1">
-        <v>3.3271250000000001</v>
+        <v>3.2181500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>8.92</v>
+        <v>7.32</v>
       </c>
       <c r="B67" s="1">
-        <v>7.2705070000000003</v>
+        <v>7.6511950000000004</v>
       </c>
       <c r="C67" s="1">
-        <v>3.2823449999999998</v>
+        <v>3.2567900000000001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="B68" s="1">
-        <v>7.247344</v>
+        <v>7.6199979999999998</v>
       </c>
       <c r="C68" s="1">
-        <v>3.251001</v>
+        <v>3.3064070000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>9.08</v>
+        <v>7.48</v>
       </c>
       <c r="B69" s="1">
-        <v>7.2360139999999999</v>
+        <v>7.5840670000000001</v>
       </c>
       <c r="C69" s="1">
-        <v>3.2146870000000001</v>
+        <v>3.3486989999999999</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>9.16</v>
+        <v>7.56</v>
       </c>
       <c r="B70" s="1">
-        <v>7.2145729999999997</v>
+        <v>7.5514669999999997</v>
       </c>
       <c r="C70" s="1">
-        <v>3.1715659999999999</v>
+        <v>3.3992309999999999</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>9.24</v>
+        <v>7.64</v>
       </c>
       <c r="B71" s="1">
-        <v>7.1912880000000001</v>
+        <v>7.5118970000000003</v>
       </c>
       <c r="C71" s="1">
-        <v>3.1344949999999998</v>
+        <v>3.4315950000000002</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>9.32</v>
+        <v>7.72</v>
       </c>
       <c r="B72" s="1">
-        <v>7.1569789999999998</v>
+        <v>7.4768290000000004</v>
       </c>
       <c r="C72" s="1">
-        <v>3.0901299999999998</v>
+        <v>3.4685359999999998</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="B73" s="1">
-        <v>7.1161430000000001</v>
+        <v>7.4388889999999996</v>
       </c>
       <c r="C73" s="1">
-        <v>3.049353</v>
+        <v>3.4936180000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>9.48</v>
+        <v>7.88</v>
       </c>
       <c r="B74" s="1">
-        <v>7.0751660000000003</v>
+        <v>7.4066890000000001</v>
       </c>
       <c r="C74" s="1">
-        <v>3.0130379999999999</v>
+        <v>3.5207839999999999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>9.56</v>
+        <v>7.96</v>
       </c>
       <c r="B75" s="1">
-        <v>7.053693</v>
+        <v>7.3772120000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2.973071</v>
+        <v>3.5307339999999998</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>9.64</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="B76" s="1">
-        <v>7.0049999999999999</v>
+        <v>7.3534300000000004</v>
       </c>
       <c r="C76" s="1">
-        <v>2.93668</v>
+        <v>3.5405509999999998</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>9.7200000000000006</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="B77" s="1">
-        <v>6.9746639999999998</v>
+        <v>7.3309230000000003</v>
       </c>
       <c r="C77" s="1">
-        <v>2.9012739999999999</v>
+        <v>3.5322390000000001</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>9.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B78" s="1">
-        <v>6.9185189999999999</v>
+        <v>7.3100379999999996</v>
       </c>
       <c r="C78" s="1">
-        <v>2.8637009999999998</v>
+        <v>3.526535</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>9.8800000000000008</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="B79" s="1">
-        <v>6.8827569999999998</v>
+        <v>7.3027329999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2.8404410000000002</v>
+        <v>3.5146989999999998</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>9.9600000000000009</v>
+        <v>8.36</v>
       </c>
       <c r="B80" s="1">
-        <v>6.841621</v>
+        <v>7.2962600000000002</v>
       </c>
       <c r="C80" s="1">
-        <v>2.8021790000000002</v>
+        <v>3.4926159999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>10.039999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="B81" s="1">
-        <v>6.8102220000000004</v>
+        <v>7.288678</v>
       </c>
       <c r="C81" s="1">
-        <v>2.776097</v>
+        <v>3.4729950000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>10.119999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="B82" s="1">
-        <v>6.7803630000000004</v>
+        <v>7.2906560000000002</v>
       </c>
       <c r="C82" s="1">
-        <v>2.7484169999999999</v>
+        <v>3.4432909999999999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>10.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="B83" s="1">
-        <v>6.754321</v>
+        <v>7.2820910000000003</v>
       </c>
       <c r="C83" s="1">
-        <v>2.7203599999999999</v>
+        <v>3.4145150000000002</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>10.28</v>
+        <v>8.68</v>
       </c>
       <c r="B84" s="1">
-        <v>6.7349639999999997</v>
+        <v>7.2886860000000002</v>
       </c>
       <c r="C84" s="1">
-        <v>2.704809</v>
+        <v>3.3934500000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>10.36</v>
+        <v>8.76</v>
       </c>
       <c r="B85" s="1">
-        <v>6.7241809999999997</v>
+        <v>7.2854489999999998</v>
       </c>
       <c r="C85" s="1">
-        <v>2.6954319999999998</v>
+        <v>3.3549859999999998</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>10.44</v>
+        <v>8.84</v>
       </c>
       <c r="B86" s="1">
-        <v>6.7207540000000003</v>
+        <v>7.276859</v>
       </c>
       <c r="C86" s="1">
-        <v>2.7004109999999999</v>
+        <v>3.3271250000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>10.52</v>
+        <v>8.92</v>
       </c>
       <c r="B87" s="1">
-        <v>6.7205560000000002</v>
+        <v>7.2705070000000003</v>
       </c>
       <c r="C87" s="1">
-        <v>2.7135959999999999</v>
+        <v>3.2823449999999998</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>10.6</v>
+        <v>9</v>
       </c>
       <c r="B88" s="1">
-        <v>6.7271739999999998</v>
+        <v>7.247344</v>
       </c>
       <c r="C88" s="1">
-        <v>2.739376</v>
+        <v>3.251001</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>10.68</v>
+        <v>9.08</v>
       </c>
       <c r="B89" s="1">
-        <v>6.7276059999999998</v>
+        <v>7.2360139999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>2.7681900000000002</v>
+        <v>3.2146870000000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>10.76</v>
+        <v>9.16</v>
       </c>
       <c r="B90" s="1">
-        <v>6.7317920000000004</v>
+        <v>7.2145729999999997</v>
       </c>
       <c r="C90" s="1">
-        <v>2.8169740000000001</v>
+        <v>3.1715659999999999</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>10.84</v>
+        <v>9.24</v>
       </c>
       <c r="B91" s="1">
-        <v>6.7318230000000003</v>
+        <v>7.1912880000000001</v>
       </c>
       <c r="C91" s="1">
-        <v>2.8737110000000001</v>
+        <v>3.1344949999999998</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>10.92</v>
+        <v>9.32</v>
       </c>
       <c r="B92" s="1">
-        <v>6.7306229999999996</v>
+        <v>7.1569789999999998</v>
       </c>
       <c r="C92" s="1">
-        <v>2.9414500000000001</v>
+        <v>3.0901299999999998</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="B93" s="1">
-        <v>6.708304</v>
+        <v>7.1161430000000001</v>
       </c>
       <c r="C93" s="1">
-        <v>3.0158480000000001</v>
+        <v>3.049353</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>11.08</v>
+        <v>9.48</v>
       </c>
       <c r="B94" s="1">
-        <v>6.6730049999999999</v>
+        <v>7.0751660000000003</v>
       </c>
       <c r="C94" s="1">
-        <v>3.063609</v>
+        <v>3.0130379999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>11.16</v>
+        <v>9.56</v>
       </c>
       <c r="B95" s="1">
-        <v>6.6133810000000004</v>
+        <v>7.053693</v>
       </c>
       <c r="C95" s="1">
-        <v>3.11002</v>
+        <v>2.973071</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>11.24</v>
+        <v>9.64</v>
       </c>
       <c r="B96" s="1">
-        <v>6.573728</v>
+        <v>7.0049999999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>3.1024799999999999</v>
+        <v>2.93668</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>11.32</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="B97" s="1">
-        <v>6.535806</v>
+        <v>6.9746639999999998</v>
       </c>
       <c r="C97" s="1">
-        <v>3.0841569999999998</v>
+        <v>2.9012739999999999</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>11.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B98" s="1">
-        <v>6.536041</v>
+        <v>6.9185189999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>3.035609</v>
+        <v>2.8637009999999998</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>11.48</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="B99" s="1">
-        <v>6.5334149999999998</v>
+        <v>6.8827569999999998</v>
       </c>
       <c r="C99" s="1">
-        <v>3.0027680000000001</v>
+        <v>2.8404410000000002</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>11.56</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="B100" s="1">
-        <v>6.5567799999999998</v>
+        <v>6.841621</v>
       </c>
       <c r="C100" s="1">
-        <v>2.9656129999999998</v>
+        <v>2.8021790000000002</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>11.64</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="B101" s="1">
-        <v>6.575272</v>
+        <v>6.8102220000000004</v>
       </c>
       <c r="C101" s="1">
-        <v>2.941389</v>
+        <v>2.776097</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>11.72</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="B102" s="1">
-        <v>6.607183</v>
+        <v>6.7803630000000004</v>
       </c>
       <c r="C102" s="1">
-        <v>2.9186969999999999</v>
+        <v>2.7484169999999999</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>11.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B103" s="1">
-        <v>6.638452</v>
+        <v>6.754321</v>
       </c>
       <c r="C103" s="1">
-        <v>2.9000270000000001</v>
+        <v>2.7203599999999999</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>11.88</v>
+        <v>10.28</v>
       </c>
       <c r="B104" s="1">
-        <v>6.6731280000000002</v>
+        <v>6.7349639999999997</v>
       </c>
       <c r="C104" s="1">
-        <v>2.8943569999999998</v>
+        <v>2.704809</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>11.96</v>
+        <v>10.36</v>
       </c>
       <c r="B105" s="1">
-        <v>6.7090339999999999</v>
+        <v>6.7241809999999997</v>
       </c>
       <c r="C105" s="1">
-        <v>2.8973170000000001</v>
+        <v>2.6954319999999998</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>12.04</v>
+        <v>10.44</v>
       </c>
       <c r="B106" s="1">
-        <v>6.7295150000000001</v>
+        <v>6.7207540000000003</v>
       </c>
       <c r="C106" s="1">
-        <v>2.921071</v>
+        <v>2.7004109999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>12.12</v>
+        <v>10.52</v>
       </c>
       <c r="B107" s="1">
-        <v>6.7557809999999998</v>
+        <v>6.7205560000000002</v>
       </c>
       <c r="C107" s="1">
-        <v>2.956512</v>
+        <v>2.7135959999999999</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>12.2</v>
+        <v>10.6</v>
       </c>
       <c r="B108" s="1">
-        <v>6.7593579999999998</v>
+        <v>6.7271739999999998</v>
       </c>
       <c r="C108" s="1">
-        <v>2.9895119999999999</v>
+        <v>2.739376</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>12.28</v>
+        <v>10.68</v>
       </c>
       <c r="B109" s="1">
-        <v>6.754143</v>
+        <v>6.7276059999999998</v>
       </c>
       <c r="C109" s="1">
-        <v>3.0241660000000001</v>
+        <v>2.7681900000000002</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>12.36</v>
+        <v>10.76</v>
       </c>
       <c r="B110" s="1">
-        <v>6.7441680000000002</v>
+        <v>6.7317920000000004</v>
       </c>
       <c r="C110" s="1">
-        <v>3.0467070000000001</v>
+        <v>2.8169740000000001</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>12.44</v>
+        <v>10.84</v>
       </c>
       <c r="B111" s="1">
-        <v>6.7242940000000004</v>
+        <v>6.7318230000000003</v>
       </c>
       <c r="C111" s="1">
-        <v>3.0875620000000001</v>
+        <v>2.8737110000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>12.52</v>
+        <v>10.92</v>
       </c>
       <c r="B112" s="1">
-        <v>6.7115039999999997</v>
+        <v>6.7306229999999996</v>
       </c>
       <c r="C112" s="1">
-        <v>3.1279880000000002</v>
+        <v>2.9414500000000001</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="B113" s="1">
-        <v>6.6831180000000003</v>
+        <v>6.708304</v>
       </c>
       <c r="C113" s="1">
-        <v>3.1529590000000001</v>
+        <v>3.0158480000000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>12.68</v>
+        <v>11.08</v>
       </c>
       <c r="B114" s="1">
-        <v>6.6470659999999997</v>
+        <v>6.6730049999999999</v>
       </c>
       <c r="C114" s="1">
-        <v>3.182375</v>
+        <v>3.063609</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>12.76</v>
+        <v>11.16</v>
       </c>
       <c r="B115" s="1">
-        <v>6.593998</v>
+        <v>6.6133810000000004</v>
       </c>
       <c r="C115" s="1">
-        <v>3.20384</v>
+        <v>3.11002</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>12.84</v>
+        <v>11.24</v>
       </c>
       <c r="B116" s="1">
-        <v>6.5498710000000004</v>
+        <v>6.573728</v>
       </c>
       <c r="C116" s="1">
-        <v>3.2150439999999998</v>
+        <v>3.1024799999999999</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>12.92</v>
+        <v>11.32</v>
       </c>
       <c r="B117" s="1">
-        <v>6.5105420000000001</v>
+        <v>6.535806</v>
       </c>
       <c r="C117" s="1">
-        <v>3.204904</v>
+        <v>3.0841569999999998</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="B118" s="1">
-        <v>6.4815649999999998</v>
+        <v>6.536041</v>
       </c>
       <c r="C118" s="1">
-        <v>3.1858430000000002</v>
+        <v>3.035609</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>13.08</v>
+        <v>11.48</v>
       </c>
       <c r="B119" s="1">
-        <v>6.444496</v>
+        <v>6.5334149999999998</v>
       </c>
       <c r="C119" s="1">
-        <v>3.1583410000000001</v>
+        <v>3.0027680000000001</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>13.16</v>
+        <v>11.56</v>
       </c>
       <c r="B120" s="1">
-        <v>6.4293889999999996</v>
+        <v>6.5567799999999998</v>
       </c>
       <c r="C120" s="1">
-        <v>3.1339999999999999</v>
+        <v>2.9656129999999998</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>13.24</v>
+        <v>11.64</v>
       </c>
       <c r="B121" s="1">
-        <v>6.4076219999999999</v>
+        <v>6.575272</v>
       </c>
       <c r="C121" s="1">
-        <v>3.0960549999999998</v>
+        <v>2.941389</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>13.32</v>
+        <v>11.72</v>
       </c>
       <c r="B122" s="1">
-        <v>6.4059600000000003</v>
+        <v>6.607183</v>
       </c>
       <c r="C122" s="1">
-        <v>3.0556800000000002</v>
+        <v>2.9186969999999999</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>13.4</v>
+        <v>11.8</v>
       </c>
       <c r="B123" s="1">
-        <v>6.4101809999999997</v>
+        <v>6.638452</v>
       </c>
       <c r="C123" s="1">
-        <v>2.9988830000000002</v>
+        <v>2.9000270000000001</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>13.48</v>
+        <v>11.88</v>
       </c>
       <c r="B124" s="1">
-        <v>6.4325910000000004</v>
+        <v>6.6731280000000002</v>
       </c>
       <c r="C124" s="1">
-        <v>2.9507029999999999</v>
+        <v>2.8943569999999998</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>13.56</v>
+        <v>11.96</v>
       </c>
       <c r="B125" s="1">
-        <v>6.4659560000000003</v>
+        <v>6.7090339999999999</v>
       </c>
       <c r="C125" s="1">
-        <v>2.9083049999999999</v>
+        <v>2.8973170000000001</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>13.64</v>
+        <v>12.04</v>
       </c>
       <c r="B126" s="1">
-        <v>6.4981499999999999</v>
+        <v>6.7295150000000001</v>
       </c>
       <c r="C126" s="1">
-        <v>2.8795350000000002</v>
+        <v>2.921071</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>13.72</v>
+        <v>12.12</v>
       </c>
       <c r="B127" s="1">
-        <v>6.5243209999999996</v>
+        <v>6.7557809999999998</v>
       </c>
       <c r="C127" s="1">
-        <v>2.882606</v>
+        <v>2.956512</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>13.8</v>
+        <v>12.2</v>
       </c>
       <c r="B128" s="1">
-        <v>6.5640549999999998</v>
+        <v>6.7593579999999998</v>
       </c>
       <c r="C128" s="1">
-        <v>2.8739910000000002</v>
+        <v>2.9895119999999999</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>13.88</v>
+        <v>12.28</v>
       </c>
       <c r="B129" s="1">
-        <v>6.5986459999999996</v>
+        <v>6.754143</v>
       </c>
       <c r="C129" s="1">
-        <v>2.873427</v>
+        <v>3.0241660000000001</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>13.96</v>
+        <v>12.36</v>
       </c>
       <c r="B130" s="1">
-        <v>6.6586910000000001</v>
+        <v>6.7441680000000002</v>
       </c>
       <c r="C130" s="1">
-        <v>2.8751440000000001</v>
+        <v>3.0467070000000001</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>14.04</v>
+        <v>12.44</v>
       </c>
       <c r="B131" s="1">
-        <v>6.6527890000000003</v>
+        <v>6.7242940000000004</v>
       </c>
       <c r="C131" s="1">
-        <v>2.9073449999999998</v>
+        <v>3.0875620000000001</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>14.12</v>
+        <v>12.52</v>
       </c>
       <c r="B132" s="1">
-        <v>6.6587199999999998</v>
+        <v>6.7115039999999997</v>
       </c>
       <c r="C132" s="1">
-        <v>2.9806840000000001</v>
+        <v>3.1279880000000002</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
       <c r="B133" s="1">
-        <v>6.6270230000000003</v>
+        <v>6.6831180000000003</v>
       </c>
       <c r="C133" s="1">
-        <v>3.008429</v>
+        <v>3.1529590000000001</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>14.28</v>
+        <v>12.68</v>
       </c>
       <c r="B134" s="1">
-        <v>6.6083299999999996</v>
+        <v>6.6470659999999997</v>
       </c>
       <c r="C134" s="1">
-        <v>3.0640480000000001</v>
+        <v>3.182375</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>14.36</v>
+        <v>12.76</v>
       </c>
       <c r="B135" s="1">
-        <v>6.6152220000000002</v>
+        <v>6.593998</v>
       </c>
       <c r="C135" s="1">
-        <v>3.0310239999999999</v>
+        <v>3.20384</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>14.44</v>
+        <v>12.84</v>
       </c>
       <c r="B136" s="1">
-        <v>6.5650820000000003</v>
+        <v>6.5498710000000004</v>
       </c>
       <c r="C136" s="1">
-        <v>3.0391439999999998</v>
+        <v>3.2150439999999998</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>14.52</v>
+        <v>12.92</v>
       </c>
       <c r="B137" s="1">
-        <v>6.5315300000000001</v>
+        <v>6.5105420000000001</v>
       </c>
       <c r="C137" s="1">
-        <v>3.0678019999999999</v>
+        <v>3.204904</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>14.6</v>
+        <v>13</v>
       </c>
       <c r="B138" s="1">
-        <v>6.4652640000000003</v>
+        <v>6.4815649999999998</v>
       </c>
       <c r="C138" s="1">
-        <v>3.088768</v>
+        <v>3.1858430000000002</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>14.68</v>
+        <v>13.08</v>
       </c>
       <c r="B139" s="1">
-        <v>6.4194889999999996</v>
+        <v>6.444496</v>
       </c>
       <c r="C139" s="1">
-        <v>3.116015</v>
+        <v>3.1583410000000001</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>14.76</v>
+        <v>13.16</v>
       </c>
       <c r="B140" s="1">
-        <v>6.3584550000000002</v>
+        <v>6.4293889999999996</v>
       </c>
       <c r="C140" s="1">
-        <v>3.0674779999999999</v>
+        <v>3.1339999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>14.84</v>
+        <v>13.24</v>
       </c>
       <c r="B141" s="1">
-        <v>6.2924850000000001</v>
+        <v>6.4076219999999999</v>
       </c>
       <c r="C141" s="1">
-        <v>3.013925</v>
+        <v>3.0960549999999998</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>14.92</v>
+        <v>13.32</v>
       </c>
       <c r="B142" s="1">
-        <v>6.2237980000000004</v>
+        <v>6.4059600000000003</v>
       </c>
       <c r="C142" s="1">
-        <v>2.9640710000000001</v>
+        <v>3.0556800000000002</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>15</v>
+        <v>13.4</v>
       </c>
       <c r="B143" s="1">
-        <v>6.188714</v>
+        <v>6.4101809999999997</v>
       </c>
       <c r="C143" s="1">
-        <v>2.942202</v>
+        <v>2.9988830000000002</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>15.08</v>
+        <v>13.48</v>
       </c>
       <c r="B144" s="1">
-        <v>6.1461129999999997</v>
+        <v>6.4325910000000004</v>
       </c>
       <c r="C144" s="1">
-        <v>2.880703</v>
+        <v>2.9507029999999999</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>15.16</v>
+        <v>13.56</v>
       </c>
       <c r="B145" s="1">
-        <v>6.125985</v>
+        <v>6.4659560000000003</v>
       </c>
       <c r="C145" s="1">
-        <v>2.8312979999999999</v>
+        <v>2.9083049999999999</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>15.24</v>
+        <v>13.64</v>
       </c>
       <c r="B146" s="1">
-        <v>6.0952869999999999</v>
+        <v>6.4981499999999999</v>
       </c>
       <c r="C146" s="1">
-        <v>2.748373</v>
+        <v>2.8795350000000002</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>15.32</v>
+        <v>13.72</v>
       </c>
       <c r="B147" s="1">
-        <v>6.0731089999999996</v>
+        <v>6.5243209999999996</v>
       </c>
       <c r="C147" s="1">
-        <v>2.7154440000000002</v>
+        <v>2.882606</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>15.4</v>
+        <v>13.8</v>
       </c>
       <c r="B148" s="1">
-        <v>6.0624969999999996</v>
+        <v>6.5640549999999998</v>
       </c>
       <c r="C148" s="1">
-        <v>2.6788889999999999</v>
+        <v>2.8739910000000002</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>15.48</v>
+        <v>13.88</v>
       </c>
       <c r="B149" s="1">
-        <v>6.0544010000000004</v>
+        <v>6.5986459999999996</v>
       </c>
       <c r="C149" s="1">
-        <v>2.6663649999999999</v>
+        <v>2.873427</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>15.56</v>
+        <v>13.96</v>
       </c>
       <c r="B150" s="1">
-        <v>6.0502880000000001</v>
+        <v>6.6586910000000001</v>
       </c>
       <c r="C150" s="1">
-        <v>2.6462560000000002</v>
+        <v>2.8751440000000001</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>15.64</v>
+        <v>14.04</v>
       </c>
       <c r="B151" s="1">
-        <v>6.0502760000000002</v>
+        <v>6.6527890000000003</v>
       </c>
       <c r="C151" s="1">
-        <v>2.628619</v>
+        <v>2.9073449999999998</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>15.72</v>
+        <v>14.12</v>
       </c>
       <c r="B152" s="1">
-        <v>6.0402810000000002</v>
+        <v>6.6587199999999998</v>
       </c>
       <c r="C152" s="1">
-        <v>2.6314389999999999</v>
+        <v>2.9806840000000001</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>15.8</v>
+        <v>14.2</v>
       </c>
       <c r="B153" s="1">
-        <v>6.0520300000000002</v>
+        <v>6.6270230000000003</v>
       </c>
       <c r="C153" s="1">
-        <v>2.6536249999999999</v>
+        <v>3.008429</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>15.88</v>
+        <v>14.28</v>
       </c>
       <c r="B154" s="1">
-        <v>6.0561660000000002</v>
+        <v>6.6083299999999996</v>
       </c>
       <c r="C154" s="1">
-        <v>2.6741579999999998</v>
+        <v>3.0640480000000001</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>15.96</v>
+        <v>14.36</v>
       </c>
       <c r="B155" s="1">
-        <v>6.049099</v>
+        <v>6.6152220000000002</v>
       </c>
       <c r="C155" s="1">
-        <v>2.7034009999999999</v>
+        <v>3.0310239999999999</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>16.04</v>
+        <v>14.44</v>
       </c>
       <c r="B156" s="1">
-        <v>6.0440610000000001</v>
+        <v>6.5650820000000003</v>
       </c>
       <c r="C156" s="1">
-        <v>2.7314479999999999</v>
+        <v>3.0391439999999998</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>16.12</v>
+        <v>14.52</v>
       </c>
       <c r="B157" s="1">
-        <v>6.0417389999999997</v>
+        <v>6.5315300000000001</v>
       </c>
       <c r="C157" s="1">
-        <v>2.7636259999999999</v>
+        <v>3.0678019999999999</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>16.2</v>
+        <v>14.6</v>
       </c>
       <c r="B158" s="1">
-        <v>6.0559419999999999</v>
+        <v>6.4652640000000003</v>
       </c>
       <c r="C158" s="1">
-        <v>2.7996500000000002</v>
+        <v>3.088768</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>16.28</v>
+        <v>14.68</v>
       </c>
       <c r="B159" s="1">
-        <v>6.0661319999999996</v>
+        <v>6.4194889999999996</v>
       </c>
       <c r="C159" s="1">
-        <v>2.8391850000000001</v>
+        <v>3.116015</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>16.36</v>
+        <v>14.76</v>
       </c>
       <c r="B160" s="1">
-        <v>6.0688120000000003</v>
+        <v>6.3584550000000002</v>
       </c>
       <c r="C160" s="1">
-        <v>2.8776640000000002</v>
+        <v>3.0674779999999999</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>16.440000000000001</v>
+        <v>14.84</v>
       </c>
       <c r="B161" s="1">
-        <v>6.0572929999999996</v>
+        <v>6.2924850000000001</v>
       </c>
       <c r="C161" s="1">
-        <v>2.9152559999999998</v>
+        <v>3.013925</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>16.52</v>
+        <v>14.92</v>
       </c>
       <c r="B162" s="1">
-        <v>6.0564</v>
+        <v>6.2237980000000004</v>
       </c>
       <c r="C162" s="1">
-        <v>2.9448919999999998</v>
+        <v>2.9640710000000001</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>16.600000000000001</v>
+        <v>15</v>
       </c>
       <c r="B163" s="1">
-        <v>6.0585060000000004</v>
+        <v>6.188714</v>
       </c>
       <c r="C163" s="1">
-        <v>2.9758589999999998</v>
+        <v>2.942202</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>16.68</v>
+        <v>15.08</v>
       </c>
       <c r="B164" s="1">
-        <v>6.0764189999999996</v>
+        <v>6.1461129999999997</v>
       </c>
       <c r="C164" s="1">
-        <v>2.9924870000000001</v>
+        <v>2.880703</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>16.760000000000002</v>
+        <v>15.16</v>
       </c>
       <c r="B165" s="1">
-        <v>6.0729129999999998</v>
+        <v>6.125985</v>
       </c>
       <c r="C165" s="1">
-        <v>3.0028049999999999</v>
+        <v>2.8312979999999999</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>16.84</v>
+        <v>15.24</v>
       </c>
       <c r="B166" s="1">
-        <v>6.0753750000000002</v>
+        <v>6.0952869999999999</v>
       </c>
       <c r="C166" s="1">
-        <v>3.0069319999999999</v>
+        <v>2.748373</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>16.920000000000002</v>
+        <v>15.32</v>
       </c>
       <c r="B167" s="1">
-        <v>6.0831970000000002</v>
+        <v>6.0731089999999996</v>
       </c>
       <c r="C167" s="1">
-        <v>3.0130590000000002</v>
+        <v>2.7154440000000002</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>17</v>
+        <v>15.4</v>
       </c>
       <c r="B168" s="1">
-        <v>6.0971310000000001</v>
+        <v>6.0624969999999996</v>
       </c>
       <c r="C168" s="1">
-        <v>3.0017149999999999</v>
+        <v>2.6788889999999999</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>17.079999999999998</v>
+        <v>15.48</v>
       </c>
       <c r="B169" s="1">
-        <v>6.1184139999999996</v>
+        <v>6.0544010000000004</v>
       </c>
       <c r="C169" s="1">
-        <v>3.0012590000000001</v>
+        <v>2.6663649999999999</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>17.16</v>
+        <v>15.56</v>
       </c>
       <c r="B170" s="1">
-        <v>6.1259329999999999</v>
+        <v>6.0502880000000001</v>
       </c>
       <c r="C170" s="1">
-        <v>2.9854690000000002</v>
+        <v>2.6462560000000002</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>17.239999999999998</v>
+        <v>15.64</v>
       </c>
       <c r="B171" s="1">
-        <v>6.1306260000000004</v>
+        <v>6.0502760000000002</v>
       </c>
       <c r="C171" s="1">
-        <v>2.982307</v>
+        <v>2.628619</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>17.32</v>
+        <v>15.72</v>
       </c>
       <c r="B172" s="1">
-        <v>6.1486429999999999</v>
+        <v>6.0402810000000002</v>
       </c>
       <c r="C172" s="1">
-        <v>2.9521440000000001</v>
+        <v>2.6314389999999999</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>17.399999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="B173" s="1">
-        <v>6.1605210000000001</v>
+        <v>6.0520300000000002</v>
       </c>
       <c r="C173" s="1">
-        <v>2.89696</v>
+        <v>2.6536249999999999</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>17.48</v>
+        <v>15.88</v>
       </c>
       <c r="B174" s="1">
-        <v>6.1762879999999996</v>
+        <v>6.0561660000000002</v>
       </c>
       <c r="C174" s="1">
-        <v>2.8784049999999999</v>
+        <v>2.6741579999999998</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>17.559999999999999</v>
+        <v>15.96</v>
       </c>
       <c r="B175" s="1">
-        <v>6.1905239999999999</v>
+        <v>6.049099</v>
       </c>
       <c r="C175" s="1">
-        <v>2.8388870000000002</v>
+        <v>2.7034009999999999</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>17.64</v>
+        <v>16.04</v>
       </c>
       <c r="B176" s="1">
-        <v>6.2189800000000002</v>
+        <v>6.0440610000000001</v>
       </c>
       <c r="C176" s="1">
-        <v>2.8443350000000001</v>
+        <v>2.7314479999999999</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>17.72</v>
+        <v>16.12</v>
       </c>
       <c r="B177" s="1">
-        <v>6.2589129999999997</v>
+        <v>6.0417389999999997</v>
       </c>
       <c r="C177" s="1">
-        <v>2.7862629999999999</v>
+        <v>2.7636259999999999</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>17.8</v>
+        <v>16.2</v>
       </c>
       <c r="B178" s="1">
-        <v>6.257358</v>
+        <v>6.0559419999999999</v>
       </c>
       <c r="C178" s="1">
-        <v>2.768402</v>
+        <v>2.7996500000000002</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>17.88</v>
+        <v>16.28</v>
       </c>
       <c r="B179" s="1">
-        <v>6.2602330000000004</v>
+        <v>6.0661319999999996</v>
       </c>
       <c r="C179" s="1">
-        <v>2.7277339999999999</v>
+        <v>2.8391850000000001</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
+        <v>16.36</v>
+      </c>
+      <c r="B180" s="1">
+        <v>6.0688120000000003</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2.8776640000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="B181" s="1">
+        <v>6.0572929999999996</v>
+      </c>
+      <c r="C181" s="1">
+        <v>2.9152559999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>16.52</v>
+      </c>
+      <c r="B182" s="1">
+        <v>6.0564</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2.9448919999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B183" s="1">
+        <v>6.0585060000000004</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2.9758589999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>16.68</v>
+      </c>
+      <c r="B184" s="1">
+        <v>6.0764189999999996</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2.9924870000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="B185" s="1">
+        <v>6.0729129999999998</v>
+      </c>
+      <c r="C185" s="1">
+        <v>3.0028049999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>16.84</v>
+      </c>
+      <c r="B186" s="1">
+        <v>6.0753750000000002</v>
+      </c>
+      <c r="C186" s="1">
+        <v>3.0069319999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="B187" s="1">
+        <v>6.0831970000000002</v>
+      </c>
+      <c r="C187" s="1">
+        <v>3.0130590000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>17</v>
+      </c>
+      <c r="B188" s="1">
+        <v>6.0971310000000001</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3.0017149999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="B189" s="1">
+        <v>6.1184139999999996</v>
+      </c>
+      <c r="C189" s="1">
+        <v>3.0012590000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>17.16</v>
+      </c>
+      <c r="B190" s="1">
+        <v>6.1259329999999999</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2.9854690000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="B191" s="1">
+        <v>6.1306260000000004</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2.982307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>17.32</v>
+      </c>
+      <c r="B192" s="1">
+        <v>6.1486429999999999</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2.9521440000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B193" s="1">
+        <v>6.1605210000000001</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2.89696</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>17.48</v>
+      </c>
+      <c r="B194" s="1">
+        <v>6.1762879999999996</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2.8784049999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="B195" s="1">
+        <v>6.1905239999999999</v>
+      </c>
+      <c r="C195" s="1">
+        <v>2.8388870000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>17.64</v>
+      </c>
+      <c r="B196" s="1">
+        <v>6.2189800000000002</v>
+      </c>
+      <c r="C196" s="1">
+        <v>2.8443350000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>17.72</v>
+      </c>
+      <c r="B197" s="1">
+        <v>6.2589129999999997</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2.7862629999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="B198" s="1">
+        <v>6.257358</v>
+      </c>
+      <c r="C198" s="1">
+        <v>2.768402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>17.88</v>
+      </c>
+      <c r="B199" s="1">
+        <v>6.2602330000000004</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2.7277339999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>17.96</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B200" s="1">
         <v>6.2621149999999997</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C200" s="1">
         <v>2.7422179999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>